--- a/PRECIOS UNITARIOS CONSULTOBRA.xlsx
+++ b/PRECIOS UNITARIOS CONSULTOBRA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\ProyectosFreelance\Consultobra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9356157A-3494-4C31-A3EF-882243C63A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B42AF0-FABB-4E31-A1B3-732B1551716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="591" xr2:uid="{8B6F136D-A7AE-43CE-9B6F-C86F36425546}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="155">
   <si>
     <t>RECURSOS MATERIALES</t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t>IdItem</t>
+  </si>
+  <si>
+    <t>Llamar Beneficio</t>
   </si>
 </sst>
 </file>
@@ -908,11 +911,21 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,16 +933,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,6 +959,46 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -988,13 +1031,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
-        <top style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1018,6 +1059,16 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1037,6 +1088,16 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1050,6 +1111,16 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1061,6 +1132,16 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1078,16 +1159,21 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1104,17 +1190,8 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1130,17 +1207,8 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1156,17 +1224,8 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1182,6 +1241,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1195,6 +1258,78 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1206,6 +1341,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1233,6 +1371,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1258,145 +1400,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2095,42 +2098,42 @@
     <sortCondition ref="D8:D51"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{3B71C76D-F3FC-4ED4-8E11-E4938B60C21B}" name="N°R" dataDxfId="41" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{44D43325-D042-4473-8F0D-72841CD5B061}" name="RUBROS" totalsRowDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{3B71C76D-F3FC-4ED4-8E11-E4938B60C21B}" name="N°R" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{44D43325-D042-4473-8F0D-72841CD5B061}" name="RUBROS" totalsRowDxfId="39"/>
     <tableColumn id="19" xr3:uid="{7DA9868B-F349-4364-BCD5-6B6CB87A829C}" name="IdItem"/>
-    <tableColumn id="16" xr3:uid="{06A5FD95-3354-4398-8D07-0A69B91D0D84}" name="N°I" dataDxfId="40" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{812F73D2-6A0A-48BA-AB76-AE47D75E3201}" name="ÍTEMS" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{CB4824E1-4608-4429-9045-77EDD571F22F}" name="UNIDAD" dataDxfId="39" totalsRowDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{7113B311-CEC2-4354-A8B0-E12B76C1057E}" name="MATERIALES" dataDxfId="38" totalsRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{60B23736-4825-4BFD-84F0-05B759FB53DD}" name="OBREROS" dataDxfId="37" totalsRowDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{141C7058-B796-4231-A282-A5A31632FF3C}" name="HERRAMENTAL" dataDxfId="36" totalsRowDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{736A52F8-5D38-4DEC-9F15-1A273676C760}" name="CARGAS SOCIALES" dataDxfId="35" totalsRowDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{BE3D3FD1-AA3B-42AF-9124-0983A49F5D84}" name="COMENTARIO" dataDxfId="34" totalsRowDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{B6596167-31B0-44A6-B015-F81823EC3E92}" name="Oficial Especializado" dataDxfId="33" totalsRowDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{C3BC12EF-48AD-4199-A658-528171793F79}" name="Oficial" dataDxfId="32" totalsRowDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{009F9510-62A2-4093-AA89-297610A64688}" name="Medio Oficial" dataDxfId="31" totalsRowDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{D494B89F-8626-4381-964A-5F182D8820A4}" name="Ayudante" dataDxfId="30" totalsRowDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{419C08AC-B34D-454D-8134-5D51EF1762C0}" name="RECURSOS MATERIALES" dataDxfId="29" totalsRowDxfId="7">
+    <tableColumn id="16" xr3:uid="{06A5FD95-3354-4398-8D07-0A69B91D0D84}" name="N°I" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{812F73D2-6A0A-48BA-AB76-AE47D75E3201}" name="ÍTEMS" totalsRowDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{CB4824E1-4608-4429-9045-77EDD571F22F}" name="UNIDAD" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{7113B311-CEC2-4354-A8B0-E12B76C1057E}" name="MATERIALES" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{60B23736-4825-4BFD-84F0-05B759FB53DD}" name="OBREROS" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{141C7058-B796-4231-A282-A5A31632FF3C}" name="HERRAMENTAL" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{736A52F8-5D38-4DEC-9F15-1A273676C760}" name="CARGAS SOCIALES" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{BE3D3FD1-AA3B-42AF-9124-0983A49F5D84}" name="COMENTARIO" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{B6596167-31B0-44A6-B015-F81823EC3E92}" name="Oficial Especializado" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{C3BC12EF-48AD-4199-A658-528171793F79}" name="Oficial" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{009F9510-62A2-4093-AA89-297610A64688}" name="Medio Oficial" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{D494B89F-8626-4381-964A-5F182D8820A4}" name="Ayudante" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{419C08AC-B34D-454D-8134-5D51EF1762C0}" name="RECURSOS MATERIALES" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>(IF($Q$2="Materiales y Mano de Obra",Tabla1[[#This Row],[MATERIALES]]*(IF($Q$4="NO",1.21,1)),"-"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{71F958AF-A417-45F7-B383-9E803D68F15F}" name="MANO DE OBRA" dataDxfId="28" totalsRowDxfId="6">
+    <tableColumn id="20" xr3:uid="{71F958AF-A417-45F7-B383-9E803D68F15F}" name="MANO DE OBRA" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>(Tabla1[[#This Row],[OBREROS]]+IF($Q$3="SI",1,0)*Tabla1[[#This Row],[CARGAS SOCIALES]])+Tabla1[[#This Row],[HERRAMENTAL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{F36FB974-EA3F-4500-BE3B-A011DED1C312}" name="COSTO UNITARIO" dataDxfId="27" totalsRowDxfId="5">
+    <tableColumn id="21" xr3:uid="{F36FB974-EA3F-4500-BE3B-A011DED1C312}" name="COSTO UNITARIO" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF($Q$2="Materiales y Mano de Obra",Tabla1[[#This Row],[RECURSOS MATERIALES]]+Tabla1[[#This Row],[MANO DE OBRA]],Tabla1[[#This Row],[MANO DE OBRA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{4EDFFFDD-6E93-4DD2-A883-D63007280C08}" name="CANTIDAD" dataDxfId="26" totalsRowDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{DCDC1C0D-CE47-4E23-A35E-95FFC3A5D1E8}" name="COSTO DIRECTO (CD)" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="3">
+    <tableColumn id="22" xr3:uid="{4EDFFFDD-6E93-4DD2-A883-D63007280C08}" name="CANTIDAD" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{DCDC1C0D-CE47-4E23-A35E-95FFC3A5D1E8}" name="COSTO DIRECTO (CD)" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla1[[#This Row],[COSTO UNITARIO]]*Tabla1[[#This Row],[CANTIDAD]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabla1[COSTO DIRECTO (CD)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{EE01A163-8267-43DC-873A-2AECDF7641DA}" name="Incidencia " totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="2">
+    <tableColumn id="24" xr3:uid="{EE01A163-8267-43DC-873A-2AECDF7641DA}" name="Incidencia " totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(ISERROR(Tabla1[[#This Row],[COSTO DIRECTO (CD)]]/Tabla1[[#Totals],[COSTO DIRECTO (CD)]])=TRUE," ",Tabla1[[#This Row],[COSTO DIRECTO (CD)]]/Tabla1[[#Totals],[COSTO DIRECTO (CD)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{59BD5A2D-FABC-4B8B-BD3D-F6229CAE03AC}" name="CD FINAL" dataDxfId="23" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{59BD5A2D-FABC-4B8B-BD3D-F6229CAE03AC}" name="CD FINAL" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>IF((ISERROR(Tabla1[[#This Row],[PRECIO FINAL]]/Tabla1[[#This Row],[CANTIDAD]]))=TRUE,0,Tabla1[[#This Row],[PRECIO FINAL]]/Tabla1[[#This Row],[CANTIDAD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0AEE631C-230D-4F78-BE60-4D1419F61D6A}" name="PRECIO FINAL" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="0">
+    <tableColumn id="5" xr3:uid="{0AEE631C-230D-4F78-BE60-4D1419F61D6A}" name="PRECIO FINAL" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>IF($Q$5="SI",$U$60*Tabla1[[#This Row],[Incidencia ]],Tabla1[[#Totals],[COSTO DIRECTO (CD)]]*Tabla1[[#This Row],[Incidencia ]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2440,8 +2443,8 @@
   </sheetPr>
   <dimension ref="A2:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="U58" sqref="U58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,13 +2479,13 @@
       <c r="Q2" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="P3" s="32" t="s">
@@ -2491,11 +2494,11 @@
       <c r="Q3" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="P4" s="32" t="s">
@@ -2504,11 +2507,11 @@
       <c r="Q4" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="25" t="s">
@@ -2520,11 +2523,11 @@
       <c r="Q5" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -2538,25 +2541,25 @@
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="10" t="s">
         <v>126</v>
       </c>
@@ -2710,8 +2713,8 @@
         <f>IF($Q$5="SI",$U$60*Tabla1[[#This Row],[Incidencia ]],Tabla1[[#Totals],[COSTO DIRECTO (CD)]]*Tabla1[[#This Row],[Incidencia ]])</f>
         <v>12575.798228499014</v>
       </c>
-      <c r="X9" s="57"/>
-      <c r="AA9" s="57"/>
+      <c r="X9" s="50"/>
+      <c r="AA9" s="50"/>
     </row>
     <row r="10" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -3196,7 +3199,7 @@
         <f>IF($Q$5="SI",$U$60*Tabla1[[#This Row],[Incidencia ]],Tabla1[[#Totals],[COSTO DIRECTO (CD)]]*Tabla1[[#This Row],[Incidencia ]])</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="57"/>
+      <c r="Y16" s="50"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -3263,7 +3266,7 @@
         <f>IF($Q$5="SI",$U$60*Tabla1[[#This Row],[Incidencia ]],Tabla1[[#Totals],[COSTO DIRECTO (CD)]]*Tabla1[[#This Row],[Incidencia ]])</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="57"/>
+      <c r="Y17" s="50"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -5573,21 +5576,21 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="Q54" s="55" t="s">
+      <c r="Q54" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
       <c r="V54" s="35"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q55" s="51" t="s">
+      <c r="Q55" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="R55" s="51"/>
-      <c r="S55" s="51"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
       <c r="T55" s="18">
         <f>U55/Tabla1[[#Totals],[COSTO DIRECTO (CD)]]</f>
         <v>4.3321071159173268E-2</v>
@@ -5598,11 +5601,11 @@
       <c r="V55" s="36"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q56" s="51" t="s">
+      <c r="Q56" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="R56" s="51"/>
-      <c r="S56" s="51"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
       <c r="T56" s="18">
         <f>U56/(U55+Tabla1[[#Totals],[COSTO DIRECTO (CD)]])</f>
         <v>8.3044562899590918E-2</v>
@@ -5613,11 +5616,14 @@
       <c r="V56" s="36"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q57" s="51" t="s">
+      <c r="P57" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q57" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="R57" s="51"/>
-      <c r="S57" s="51"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
       <c r="T57" s="18">
         <f>$U$57/($U$56+$U$55+Tabla1[[#Totals],[COSTO DIRECTO (CD)]])</f>
         <v>0.1533539168088506</v>
@@ -5641,11 +5647,11 @@
       <c r="V58" s="37"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q59" s="51" t="s">
+      <c r="Q59" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="R59" s="51"/>
-      <c r="S59" s="51"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
       <c r="T59" s="18">
         <f>IF($Q$4="SI",0.21,0)</f>
         <v>0.21</v>
@@ -5657,11 +5663,11 @@
       <c r="V59" s="38"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q60" s="56" t="s">
+      <c r="Q60" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
       <c r="T60" s="26">
         <f>U60/Tabla1[[#Totals],[COSTO DIRECTO (CD)]]</f>
         <v>1.5769294727181975</v>
@@ -5679,11 +5685,11 @@
       <c r="V62" s="36"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q63" s="51" t="s">
+      <c r="Q63" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
       <c r="T63" s="20"/>
       <c r="U63" s="16">
         <v>6</v>
@@ -5691,11 +5697,11 @@
       <c r="V63" s="41"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q64" s="51" t="s">
+      <c r="Q64" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="53"/>
       <c r="T64" s="20"/>
       <c r="U64" s="21">
         <f>U60/U63</f>
@@ -5707,31 +5713,36 @@
       <c r="V65" s="41"/>
     </row>
     <row r="66" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q66" s="50" t="s">
+      <c r="Q66" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="50"/>
-      <c r="U66" s="50"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="55"/>
+      <c r="U66" s="55"/>
       <c r="V66" s="41"/>
     </row>
     <row r="67" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q67" s="50"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="50"/>
-      <c r="U67" s="50"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="55"/>
+      <c r="U67" s="55"/>
     </row>
     <row r="68" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q66:U68"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A7:J7"/>
     <mergeCell ref="S2:W5"/>
     <mergeCell ref="Q54:U54"/>
     <mergeCell ref="Q63:S63"/>
@@ -5739,11 +5750,6 @@
     <mergeCell ref="Q60:S60"/>
     <mergeCell ref="Q59:S59"/>
     <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q66:U68"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
